--- a/ESPN sports website/IPL/Chennai Super Kings/Ruturaj Gaikwad.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/Ruturaj Gaikwad.xlsx
@@ -445,31 +445,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C2" t="str">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>152.08</v>
+        <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Gujarat Titans</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>March 26, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
+        <v>KKR won by 6 wickets (with 9 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
         <v>4</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>March 26, 2022</v>
+        <v>March 31, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 6 wickets (with 9 balls remaining)</v>
+        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C4" t="str">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D4" t="str">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E4" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>106.25</v>
+        <v>108.16</v>
       </c>
       <c r="H4" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 12, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Kings won by 23 runs</v>
+        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C5" t="str">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" t="str">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>25.00</v>
+        <v>123.07</v>
       </c>
       <c r="H5" t="str">
-        <v>Punjab Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>April 03, 2022</v>
+        <v>April 09, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Sunrisers won by 8 wickets (with 14 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C7" t="str">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>121.73</v>
+        <v>0.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I7" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>May 04, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +655,10 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C8" t="str">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D8" t="str">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E8" t="str">
         <v>4</v>
@@ -667,19 +667,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>108.16</v>
+        <v>124.24</v>
       </c>
       <c r="H8" t="str">
-        <v>Gujarat Titans</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I8" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J8" t="str">
-        <v>May 15, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
+        <v>Super Kings won by 91 runs</v>
       </c>
     </row>
     <row r="9">
@@ -690,10 +690,10 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C9" t="str">
+        <v>17</v>
+      </c>
+      <c r="D9" t="str">
         <v>16</v>
-      </c>
-      <c r="D9" t="str">
-        <v>13</v>
       </c>
       <c r="E9" t="str">
         <v>3</v>
@@ -702,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>123.07</v>
+        <v>106.25</v>
       </c>
       <c r="H9" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I9" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J9" t="str">
-        <v>April 09, 2022</v>
+        <v>April 12, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Sunrisers won by 8 wickets (with 14 balls remaining)</v>
+        <v>Super Kings won by 23 runs</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C10" t="str">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D10" t="str">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E10" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" t="str">
-        <v>111.11</v>
+        <v>152.08</v>
       </c>
       <c r="H10" t="str">
-        <v>Punjab Kings</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I10" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J10" t="str">
-        <v>April 25, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Punjab Kings won by 11 runs</v>
+        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
       </c>
     </row>
     <row r="11">
@@ -795,31 +795,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C12" t="str">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D12" t="str">
+        <v>27</v>
+      </c>
+      <c r="E12" t="str">
         <v>4</v>
       </c>
-      <c r="E12" t="str">
-        <v>0</v>
-      </c>
       <c r="F12" t="str">
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>25.00</v>
+        <v>111.11</v>
       </c>
       <c r="H12" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I12" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J12" t="str">
-        <v>March 31, 2022</v>
+        <v>April 25, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
+        <v>Punjab Kings won by 11 runs</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C13" t="str">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D13" t="str">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E13" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
-        <v>124.24</v>
+        <v>25.00</v>
       </c>
       <c r="H13" t="str">
-        <v>Delhi Capitals</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I13" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J13" t="str">
-        <v>May 08, 2022</v>
+        <v>April 03, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Super Kings won by 91 runs</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="14">
@@ -865,31 +865,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C14" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="str">
+        <v>6</v>
+      </c>
+      <c r="E14" t="str">
         <v>1</v>
       </c>
-      <c r="E14" t="str">
-        <v>0</v>
-      </c>
       <c r="F14" t="str">
         <v>0</v>
       </c>
       <c r="G14" t="str">
-        <v>0.00</v>
+        <v>116.66</v>
       </c>
       <c r="H14" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I14" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J14" t="str">
-        <v>April 21, 2022</v>
+        <v>May 12, 2022</v>
       </c>
       <c r="K14" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
       </c>
     </row>
     <row r="15">
@@ -900,31 +900,31 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="C15" t="str">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D15" t="str">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E15" t="str">
+        <v>3</v>
+      </c>
+      <c r="F15" t="str">
         <v>1</v>
       </c>
-      <c r="F15" t="str">
-        <v>0</v>
-      </c>
       <c r="G15" t="str">
-        <v>116.66</v>
+        <v>121.73</v>
       </c>
       <c r="H15" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I15" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J15" t="str">
-        <v>May 12, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K15" t="str">
-        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
